--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Amh-Amhr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Amh-Amhr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Amhr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.393174</v>
+        <v>0.1040016666666667</v>
       </c>
       <c r="H2">
-        <v>1.179522</v>
+        <v>0.312005</v>
       </c>
       <c r="I2">
-        <v>0.3787719539933123</v>
+        <v>0.07757682717850639</v>
       </c>
       <c r="J2">
-        <v>0.3787719539933123</v>
+        <v>0.07757682717850639</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.277275</v>
+        <v>0.6367563333333334</v>
       </c>
       <c r="N2">
-        <v>0.8318249999999999</v>
+        <v>1.910269</v>
       </c>
       <c r="O2">
-        <v>0.3928194312742495</v>
+        <v>0.5559667642721455</v>
       </c>
       <c r="P2">
-        <v>0.3928194312742493</v>
+        <v>0.5559667642721455</v>
       </c>
       <c r="Q2">
-        <v>0.10901732085</v>
+        <v>0.06622371992722222</v>
       </c>
       <c r="R2">
-        <v>0.9811558876499998</v>
+        <v>0.5960134793449999</v>
       </c>
       <c r="S2">
-        <v>0.1487889835502891</v>
+        <v>0.04313013758893364</v>
       </c>
       <c r="T2">
-        <v>0.1487889835502891</v>
+        <v>0.04313013758893364</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.393174</v>
+        <v>0.1040016666666667</v>
       </c>
       <c r="H3">
-        <v>1.179522</v>
+        <v>0.312005</v>
       </c>
       <c r="I3">
-        <v>0.3787719539933123</v>
+        <v>0.07757682717850639</v>
       </c>
       <c r="J3">
-        <v>0.3787719539933123</v>
+        <v>0.07757682717850639</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.186681</v>
       </c>
       <c r="O3">
-        <v>0.560395943286097</v>
+        <v>0.3453729269507247</v>
       </c>
       <c r="P3">
-        <v>0.560395943286097</v>
+        <v>0.3453729269507247</v>
       </c>
       <c r="Q3">
-        <v>0.155524038498</v>
+        <v>0.04113893393388889</v>
       </c>
       <c r="R3">
-        <v>1.399716346482</v>
+        <v>0.370250405405</v>
       </c>
       <c r="S3">
-        <v>0.2122622664484003</v>
+        <v>0.02679293586619128</v>
       </c>
       <c r="T3">
-        <v>0.2122622664484003</v>
+        <v>0.02679293586619129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.1040016666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.312005</v>
+      </c>
+      <c r="I4">
+        <v>0.07757682717850639</v>
+      </c>
+      <c r="J4">
+        <v>0.07757682717850639</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.393174</v>
-      </c>
-      <c r="H4">
-        <v>1.179522</v>
-      </c>
-      <c r="I4">
-        <v>0.3787719539933123</v>
-      </c>
-      <c r="J4">
-        <v>0.3787719539933123</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.03302333333333334</v>
+        <v>0.09244666666666668</v>
       </c>
       <c r="N4">
-        <v>0.09907000000000001</v>
+        <v>0.27734</v>
       </c>
       <c r="O4">
-        <v>0.04678462543965364</v>
+        <v>0.08071733478543433</v>
       </c>
       <c r="P4">
-        <v>0.04678462543965364</v>
+        <v>0.08071733478543433</v>
       </c>
       <c r="Q4">
-        <v>0.01298391606</v>
+        <v>0.009614607411111111</v>
       </c>
       <c r="R4">
-        <v>0.11685524454</v>
+        <v>0.0865314667</v>
       </c>
       <c r="S4">
-        <v>0.01772070399462284</v>
+        <v>0.006261794730959281</v>
       </c>
       <c r="T4">
-        <v>0.01772070399462284</v>
+        <v>0.006261794730959281</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1900503333333333</v>
+        <v>0.1040016666666667</v>
       </c>
       <c r="H5">
-        <v>0.5701510000000001</v>
+        <v>0.312005</v>
       </c>
       <c r="I5">
-        <v>0.1830887497996994</v>
+        <v>0.07757682717850639</v>
       </c>
       <c r="J5">
-        <v>0.1830887497996994</v>
+        <v>0.07757682717850639</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.277275</v>
+        <v>0.02055033333333333</v>
       </c>
       <c r="N5">
-        <v>0.8318249999999999</v>
+        <v>0.061651</v>
       </c>
       <c r="O5">
-        <v>0.3928194312742495</v>
+        <v>0.01794297399169543</v>
       </c>
       <c r="P5">
-        <v>0.3928194312742493</v>
+        <v>0.01794297399169543</v>
       </c>
       <c r="Q5">
-        <v>0.052696206175</v>
+        <v>0.002137268917222222</v>
       </c>
       <c r="R5">
-        <v>0.474265855575</v>
+        <v>0.019235420255</v>
       </c>
       <c r="S5">
-        <v>0.07192081856903126</v>
+        <v>0.001391958992422192</v>
       </c>
       <c r="T5">
-        <v>0.07192081856903125</v>
+        <v>0.001391958992422192</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1900503333333333</v>
+        <v>0.393174</v>
       </c>
       <c r="H6">
-        <v>0.5701510000000001</v>
+        <v>1.179522</v>
       </c>
       <c r="I6">
-        <v>0.1830887497996994</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="J6">
-        <v>0.1830887497996994</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3955603333333333</v>
+        <v>0.6367563333333334</v>
       </c>
       <c r="N6">
-        <v>1.186681</v>
+        <v>1.910269</v>
       </c>
       <c r="O6">
-        <v>0.560395943286097</v>
+        <v>0.5559667642721455</v>
       </c>
       <c r="P6">
-        <v>0.560395943286097</v>
+        <v>0.5559667642721455</v>
       </c>
       <c r="Q6">
-        <v>0.07517637320344445</v>
+        <v>0.250356034602</v>
       </c>
       <c r="R6">
-        <v>0.6765873588310002</v>
+        <v>2.253204311418</v>
       </c>
       <c r="S6">
-        <v>0.1026021926490747</v>
+        <v>0.1630517015726484</v>
       </c>
       <c r="T6">
-        <v>0.1026021926490747</v>
+        <v>0.1630517015726484</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -850,60 +850,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1900503333333333</v>
+        <v>0.393174</v>
       </c>
       <c r="H7">
-        <v>0.5701510000000001</v>
+        <v>1.179522</v>
       </c>
       <c r="I7">
-        <v>0.1830887497996994</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="J7">
-        <v>0.1830887497996994</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.03302333333333334</v>
+        <v>0.3955603333333333</v>
       </c>
       <c r="N7">
-        <v>0.09907000000000001</v>
+        <v>1.186681</v>
       </c>
       <c r="O7">
-        <v>0.04678462543965364</v>
+        <v>0.3453729269507247</v>
       </c>
       <c r="P7">
-        <v>0.04678462543965364</v>
+        <v>0.3453729269507247</v>
       </c>
       <c r="Q7">
-        <v>0.006276095507777779</v>
+        <v>0.155524038498</v>
       </c>
       <c r="R7">
-        <v>0.05648485957000001</v>
+        <v>1.399716346482</v>
       </c>
       <c r="S7">
-        <v>0.008565738581593397</v>
+        <v>0.101289586060357</v>
       </c>
       <c r="T7">
-        <v>0.008565738581593397</v>
+        <v>0.101289586060357</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1326116666666667</v>
+        <v>0.393174</v>
       </c>
       <c r="H8">
-        <v>0.397835</v>
+        <v>1.179522</v>
       </c>
       <c r="I8">
-        <v>0.1277540735288781</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="J8">
-        <v>0.1277540735288781</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,42 +930,42 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.277275</v>
+        <v>0.09244666666666668</v>
       </c>
       <c r="N8">
-        <v>0.8318249999999999</v>
+        <v>0.27734</v>
       </c>
       <c r="O8">
-        <v>0.3928194312742495</v>
+        <v>0.08071733478543433</v>
       </c>
       <c r="P8">
-        <v>0.3928194312742493</v>
+        <v>0.08071733478543433</v>
       </c>
       <c r="Q8">
-        <v>0.036769899875</v>
+        <v>0.03634762572</v>
       </c>
       <c r="R8">
-        <v>0.3309290988749999</v>
+        <v>0.32712863148</v>
       </c>
       <c r="S8">
-        <v>0.05018428250658256</v>
+        <v>0.02367245603323842</v>
       </c>
       <c r="T8">
-        <v>0.05018428250658254</v>
+        <v>0.02367245603323842</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -974,46 +974,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.1326116666666667</v>
+        <v>0.393174</v>
       </c>
       <c r="H9">
-        <v>0.397835</v>
+        <v>1.179522</v>
       </c>
       <c r="I9">
-        <v>0.1277540735288781</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="J9">
-        <v>0.1277540735288781</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.3955603333333333</v>
+        <v>0.02055033333333333</v>
       </c>
       <c r="N9">
-        <v>1.186681</v>
+        <v>0.061651</v>
       </c>
       <c r="O9">
-        <v>0.560395943286097</v>
+        <v>0.01794297399169543</v>
       </c>
       <c r="P9">
-        <v>0.560395943286097</v>
+        <v>0.01794297399169543</v>
       </c>
       <c r="Q9">
-        <v>0.05245591507055555</v>
+        <v>0.008079856757999999</v>
       </c>
       <c r="R9">
-        <v>0.472103235635</v>
+        <v>0.07271871082199999</v>
       </c>
       <c r="S9">
-        <v>0.07159286454385705</v>
+        <v>0.005262243408470403</v>
       </c>
       <c r="T9">
-        <v>0.07159286454385705</v>
+        <v>0.005262243408470403</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,217 +1021,217 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.1326116666666667</v>
+        <v>0.201297</v>
       </c>
       <c r="H10">
-        <v>0.397835</v>
+        <v>0.603891</v>
       </c>
       <c r="I10">
-        <v>0.1277540735288781</v>
+        <v>0.1501512723887611</v>
       </c>
       <c r="J10">
-        <v>0.1277540735288781</v>
+        <v>0.1501512723887611</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.03302333333333334</v>
+        <v>0.6367563333333334</v>
       </c>
       <c r="N10">
-        <v>0.09907000000000001</v>
+        <v>1.910269</v>
       </c>
       <c r="O10">
-        <v>0.04678462543965364</v>
+        <v>0.5559667642721455</v>
       </c>
       <c r="P10">
-        <v>0.04678462543965364</v>
+        <v>0.5559667642721455</v>
       </c>
       <c r="Q10">
-        <v>0.004379279272222222</v>
+        <v>0.128177139631</v>
       </c>
       <c r="R10">
-        <v>0.03941351345</v>
+        <v>1.153594256679</v>
       </c>
       <c r="S10">
-        <v>0.005976926478438534</v>
+        <v>0.08347911706132505</v>
       </c>
       <c r="T10">
-        <v>0.005976926478438534</v>
+        <v>0.08347911706132505</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.322187</v>
+        <v>0.201297</v>
       </c>
       <c r="H11">
-        <v>0.966561</v>
+        <v>0.603891</v>
       </c>
       <c r="I11">
-        <v>0.3103852226781103</v>
+        <v>0.1501512723887611</v>
       </c>
       <c r="J11">
-        <v>0.3103852226781102</v>
+        <v>0.1501512723887611</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.277275</v>
+        <v>0.3955603333333333</v>
       </c>
       <c r="N11">
-        <v>0.8318249999999999</v>
+        <v>1.186681</v>
       </c>
       <c r="O11">
-        <v>0.3928194312742495</v>
+        <v>0.3453729269507247</v>
       </c>
       <c r="P11">
-        <v>0.3928194312742493</v>
+        <v>0.3453729269507247</v>
       </c>
       <c r="Q11">
-        <v>0.089334400425</v>
+        <v>0.07962510841899999</v>
       </c>
       <c r="R11">
-        <v>0.804009603825</v>
+        <v>0.716625975771</v>
       </c>
       <c r="S11">
-        <v>0.1219253466483465</v>
+        <v>0.05185818443028194</v>
       </c>
       <c r="T11">
-        <v>0.1219253466483465</v>
+        <v>0.05185818443028196</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.201297</v>
+      </c>
+      <c r="H12">
+        <v>0.603891</v>
+      </c>
+      <c r="I12">
+        <v>0.1501512723887611</v>
+      </c>
+      <c r="J12">
+        <v>0.1501512723887611</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="L12">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G12">
-        <v>0.322187</v>
-      </c>
-      <c r="H12">
-        <v>0.966561</v>
-      </c>
-      <c r="I12">
-        <v>0.3103852226781103</v>
-      </c>
-      <c r="J12">
-        <v>0.3103852226781102</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
       <c r="M12">
-        <v>0.3955603333333333</v>
+        <v>0.09244666666666668</v>
       </c>
       <c r="N12">
-        <v>1.186681</v>
+        <v>0.27734</v>
       </c>
       <c r="O12">
-        <v>0.560395943286097</v>
+        <v>0.08071733478543433</v>
       </c>
       <c r="P12">
-        <v>0.560395943286097</v>
+        <v>0.08071733478543433</v>
       </c>
       <c r="Q12">
-        <v>0.1274443971156667</v>
+        <v>0.01860923666</v>
       </c>
       <c r="R12">
-        <v>1.146999574041</v>
+        <v>0.16748312994</v>
       </c>
       <c r="S12">
-        <v>0.1739386196447649</v>
+        <v>0.01211981052186257</v>
       </c>
       <c r="T12">
-        <v>0.1739386196447648</v>
+        <v>0.01211981052186257</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.322187</v>
+        <v>0.201297</v>
       </c>
       <c r="H13">
-        <v>0.966561</v>
+        <v>0.603891</v>
       </c>
       <c r="I13">
-        <v>0.3103852226781103</v>
+        <v>0.1501512723887611</v>
       </c>
       <c r="J13">
-        <v>0.3103852226781102</v>
+        <v>0.1501512723887611</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1240,28 +1240,524 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.03302333333333334</v>
+        <v>0.02055033333333333</v>
       </c>
       <c r="N13">
-        <v>0.09907000000000001</v>
+        <v>0.061651</v>
       </c>
       <c r="O13">
-        <v>0.04678462543965364</v>
+        <v>0.01794297399169543</v>
       </c>
       <c r="P13">
-        <v>0.04678462543965364</v>
+        <v>0.01794297399169543</v>
       </c>
       <c r="Q13">
-        <v>0.01063968869666667</v>
+        <v>0.004136720448999999</v>
       </c>
       <c r="R13">
-        <v>0.09575719827000001</v>
+        <v>0.037230484041</v>
       </c>
       <c r="S13">
-        <v>0.01452125638499888</v>
+        <v>0.002694160375291516</v>
       </c>
       <c r="T13">
-        <v>0.01452125638499887</v>
+        <v>0.002694160375291516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.305657</v>
+      </c>
+      <c r="H14">
+        <v>0.916971</v>
+      </c>
+      <c r="I14">
+        <v>0.2279953872364295</v>
+      </c>
+      <c r="J14">
+        <v>0.2279953872364295</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6367563333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.910269</v>
+      </c>
+      <c r="O14">
+        <v>0.5559667642721455</v>
+      </c>
+      <c r="P14">
+        <v>0.5559667642721455</v>
+      </c>
+      <c r="Q14">
+        <v>0.1946290305776667</v>
+      </c>
+      <c r="R14">
+        <v>1.751661275199</v>
+      </c>
+      <c r="S14">
+        <v>0.1267578577108125</v>
+      </c>
+      <c r="T14">
+        <v>0.1267578577108125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.305657</v>
+      </c>
+      <c r="H15">
+        <v>0.916971</v>
+      </c>
+      <c r="I15">
+        <v>0.2279953872364295</v>
+      </c>
+      <c r="J15">
+        <v>0.2279953872364295</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3955603333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.186681</v>
+      </c>
+      <c r="O15">
+        <v>0.3453729269507247</v>
+      </c>
+      <c r="P15">
+        <v>0.3453729269507247</v>
+      </c>
+      <c r="Q15">
+        <v>0.1209057848056667</v>
+      </c>
+      <c r="R15">
+        <v>1.088152063251</v>
+      </c>
+      <c r="S15">
+        <v>0.07874343422110956</v>
+      </c>
+      <c r="T15">
+        <v>0.07874343422110956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.305657</v>
+      </c>
+      <c r="H16">
+        <v>0.916971</v>
+      </c>
+      <c r="I16">
+        <v>0.2279953872364295</v>
+      </c>
+      <c r="J16">
+        <v>0.2279953872364295</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.09244666666666668</v>
+      </c>
+      <c r="N16">
+        <v>0.27734</v>
+      </c>
+      <c r="O16">
+        <v>0.08071733478543433</v>
+      </c>
+      <c r="P16">
+        <v>0.08071733478543433</v>
+      </c>
+      <c r="Q16">
+        <v>0.02825697079333334</v>
+      </c>
+      <c r="R16">
+        <v>0.25431273714</v>
+      </c>
+      <c r="S16">
+        <v>0.01840318000109762</v>
+      </c>
+      <c r="T16">
+        <v>0.01840318000109762</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.305657</v>
+      </c>
+      <c r="H17">
+        <v>0.916971</v>
+      </c>
+      <c r="I17">
+        <v>0.2279953872364295</v>
+      </c>
+      <c r="J17">
+        <v>0.2279953872364295</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.02055033333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.061651</v>
+      </c>
+      <c r="O17">
+        <v>0.01794297399169543</v>
+      </c>
+      <c r="P17">
+        <v>0.01794297399169543</v>
+      </c>
+      <c r="Q17">
+        <v>0.006281353235666667</v>
+      </c>
+      <c r="R17">
+        <v>0.056532179121</v>
+      </c>
+      <c r="S17">
+        <v>0.004090915303409783</v>
+      </c>
+      <c r="T17">
+        <v>0.004090915303409783</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3364983333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.009495</v>
+      </c>
+      <c r="I18">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="J18">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.6367563333333334</v>
+      </c>
+      <c r="N18">
+        <v>1.910269</v>
+      </c>
+      <c r="O18">
+        <v>0.5559667642721455</v>
+      </c>
+      <c r="P18">
+        <v>0.5559667642721455</v>
+      </c>
+      <c r="Q18">
+        <v>0.2142674449061111</v>
+      </c>
+      <c r="R18">
+        <v>1.928407004155</v>
+      </c>
+      <c r="S18">
+        <v>0.1395479503384259</v>
+      </c>
+      <c r="T18">
+        <v>0.1395479503384259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3364983333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.009495</v>
+      </c>
+      <c r="I19">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="J19">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.3955603333333333</v>
+      </c>
+      <c r="N19">
+        <v>1.186681</v>
+      </c>
+      <c r="O19">
+        <v>0.3453729269507247</v>
+      </c>
+      <c r="P19">
+        <v>0.3453729269507247</v>
+      </c>
+      <c r="Q19">
+        <v>0.1331053928994445</v>
+      </c>
+      <c r="R19">
+        <v>1.197948536095</v>
+      </c>
+      <c r="S19">
+        <v>0.08668878637278495</v>
+      </c>
+      <c r="T19">
+        <v>0.08668878637278496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.3364983333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.009495</v>
+      </c>
+      <c r="I20">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="J20">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.09244666666666668</v>
+      </c>
+      <c r="N20">
+        <v>0.27734</v>
+      </c>
+      <c r="O20">
+        <v>0.08071733478543433</v>
+      </c>
+      <c r="P20">
+        <v>0.08071733478543433</v>
+      </c>
+      <c r="Q20">
+        <v>0.03110814925555556</v>
+      </c>
+      <c r="R20">
+        <v>0.2799733433000001</v>
+      </c>
+      <c r="S20">
+        <v>0.02026009349827644</v>
+      </c>
+      <c r="T20">
+        <v>0.02026009349827644</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.3364983333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.009495</v>
+      </c>
+      <c r="I21">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="J21">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.02055033333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.061651</v>
+      </c>
+      <c r="O21">
+        <v>0.01794297399169543</v>
+      </c>
+      <c r="P21">
+        <v>0.01794297399169543</v>
+      </c>
+      <c r="Q21">
+        <v>0.006915152916111111</v>
+      </c>
+      <c r="R21">
+        <v>0.062236376245</v>
+      </c>
+      <c r="S21">
+        <v>0.004503695912101538</v>
+      </c>
+      <c r="T21">
+        <v>0.004503695912101538</v>
       </c>
     </row>
   </sheetData>
